--- a/data-migration/mapping.xlsx
+++ b/data-migration/mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rogrut\gitlab-repositories\histvv-2025\data-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042E4F5C-8620-4B91-A71B-6C6DACD2F2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09605BB7-4A44-483D-BE52-3AB4EF8F98E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{194F53B2-CFAE-4F9A-B781-EE5AF373117E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="174">
   <si>
     <t>&lt;veranstaltung xml:id&gt;</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>Spalte "id_dozent"</t>
+  </si>
+  <si>
+    <t>Spalte "url"</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -646,13 +649,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -678,14 +675,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,71 +1017,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6397C554-86FE-4C78-BFF5-E8DA8E269753}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="900" topLeftCell="A14" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63" style="5" customWidth="1"/>
     <col min="7" max="7" width="48.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57" style="7" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="23.28515625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1105,34 +1099,34 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1143,34 +1137,34 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1178,98 +1172,98 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1277,95 +1271,95 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -1373,717 +1367,706 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="14" t="s">
+      <c r="H19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="14" t="s">
+      <c r="H20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="14" t="s">
+      <c r="H21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="14" t="s">
+      <c r="H23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="14" t="s">
+      <c r="H24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="14" t="s">
+      <c r="H25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="14" t="s">
+      <c r="H27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="14" t="s">
+      <c r="G28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="D29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="14" t="s">
+      <c r="H30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="D31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="14" t="s">
+      <c r="H31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="13" t="s">
+      <c r="H32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H33" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="13" t="s">
+      <c r="H33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>155</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="13" t="s">
+      <c r="H34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="11" t="s">
         <v>5</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -2091,189 +2074,189 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J42" s="13" t="s">
+      <c r="J42" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="J43" s="11" t="s">
         <v>147</v>
       </c>
     </row>
